--- a/Documents/Schedule/Logs/LogBookkts135.xlsx
+++ b/Documents/Schedule/Logs/LogBookkts135.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>TIME START</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>VR Research</t>
+  </si>
+  <si>
+    <t>ID 2 Development of displays</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +488,7 @@
       </c>
       <c r="F2" s="3">
         <f>SUM(D2:D71)</f>
-        <v>1.0479166666700621</v>
+        <v>2.0270833333343035</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,27 +612,63 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42775.416666666664</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42775.6875</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" ref="D11:D66" si="1">B11-A11</f>
-        <v>0</v>
+        <v>0.27083333333575865</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42776.645833333336</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42776.8125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666424135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42777.520833333336</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42777.8125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29166666666424135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42778.520833333336</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42778.770833333336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
